--- a/datastatic/datasets/online/SDG10_Discrimination_Eurobarometer_2015.xlsx
+++ b/datastatic/datasets/online/SDG10_Discrimination_Eurobarometer_2015.xlsx
@@ -8,22 +8,6 @@
   <definedNames/>
   <calcPr/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="B17">
-      <text>
-        <t xml:space="preserve">der Zielwert richtet sich jetzt nach meiner persönlichen Einstellung. Ist vielleicht ein bisschen utopisch – wär aber schön
-	-Johanna Renz</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,7 +433,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -1420,10 +1404,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="B19"/>
-    <hyperlink r:id="rId3" ref="B32"/>
+    <hyperlink r:id="rId1" ref="B19"/>
+    <hyperlink r:id="rId2" ref="B32"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/datastatic/datasets/online/SDG10_Discrimination_Eurobarometer_2015.xlsx
+++ b/datastatic/datasets/online/SDG10_Discrimination_Eurobarometer_2015.xlsx
@@ -8,6 +8,22 @@
   <definedNames/>
   <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B17">
+      <text>
+        <t xml:space="preserve">der Zielwert richtet sich jetzt nach meiner persönlichen Einstellung. Ist vielleicht ein bisschen utopisch – wär aber schön
+	-Johanna Renz</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,7 +449,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -1404,9 +1420,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B19"/>
-    <hyperlink r:id="rId2" ref="B32"/>
+    <hyperlink r:id="rId2" ref="B19"/>
+    <hyperlink r:id="rId3" ref="B32"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>